--- a/app-server/data.xlsx
+++ b/app-server/data.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="users" r:id="rId5" sheetId="1"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="57">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -83,6 +83,114 @@
   </si>
   <si>
     <t xml:space="preserve">user8</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>user7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>강윤상</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>kys</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이민석 </t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>이민석</t>
   </si>
 </sst>
 </file>
@@ -285,161 +393,252 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="0" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C2" activeCellId="0" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/app-server/data.xlsx
+++ b/app-server/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="61">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -191,6 +191,18 @@
   </si>
   <si>
     <t>이민석</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>이가람</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>김민석</t>
   </si>
 </sst>
 </file>
@@ -394,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -638,6 +650,34 @@
         <v>27</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/app-server/data.xlsx
+++ b/app-server/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="histories" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="users" r:id="rId6" sheetId="15"/>
+    <sheet name="histories" r:id="rId7" sheetId="16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="92">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -156,6 +156,147 @@
   </si>
   <si>
     <t xml:space="preserve">2024-07-30 15:00:00</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>user7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>user8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>강윤상</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>kys</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>이민석</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>이가람</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>김민석</t>
+  </si>
+  <si>
+    <t>players</t>
+  </si>
+  <si>
+    <t>winner</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>강윤상,이민석</t>
+  </si>
+  <si>
+    <t>2024-07-30 15:00:00</t>
+  </si>
+  <si>
+    <t>이민석,강윤상</t>
+  </si>
+  <si>
+    <t>2024-07-31 17:48:50</t>
+  </si>
+  <si>
+    <t>2024-07-31 18:00:36</t>
   </si>
 </sst>
 </file>
@@ -362,344 +503,350 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.68359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>6</v>
+      <c r="C16" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>44</v>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/app-server/data.xlsx
+++ b/app-server/data.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="15"/>
-    <sheet name="histories" r:id="rId7" sheetId="16"/>
+    <sheet name="users" r:id="rId6" sheetId="27"/>
+    <sheet name="histories" r:id="rId7" sheetId="28"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="120">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -32,6 +32,9 @@
     <t xml:space="preserve">win</t>
   </si>
   <si>
+    <t xml:space="preserve">draw</t>
+  </si>
+  <si>
     <t xml:space="preserve">lose</t>
   </si>
   <si>
@@ -158,6 +161,27 @@
     <t xml:space="preserve">2024-07-30 15:00:00</t>
   </si>
   <si>
+    <t xml:space="preserve">이민석,강윤상</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-31 17:48:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-31 18:00:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-31 18:10:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-31 18:11:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-31 19:27:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-31 19:29:21</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
@@ -167,6 +191,9 @@
     <t>win</t>
   </si>
   <si>
+    <t>draw</t>
+  </si>
+  <si>
     <t>lose</t>
   </si>
   <si>
@@ -297,15 +324,71 @@
   </si>
   <si>
     <t>2024-07-31 18:00:36</t>
+  </si>
+  <si>
+    <t>2024-07-31 18:10:15</t>
+  </si>
+  <si>
+    <t>2024-07-31 18:11:25</t>
+  </si>
+  <si>
+    <t>2024-07-31 19:27:31</t>
+  </si>
+  <si>
+    <t>2024-07-31 19:29:21</t>
+  </si>
+  <si>
+    <t>2024-07-31 19:38:17</t>
+  </si>
+  <si>
+    <t>2024-07-31 19:39:05</t>
+  </si>
+  <si>
+    <t>이가람,이민석</t>
+  </si>
+  <si>
+    <t>2024-07-31 19:42:06</t>
+  </si>
+  <si>
+    <t>2024-07-31 19:50:29</t>
+  </si>
+  <si>
+    <t>이가람,강윤상</t>
+  </si>
+  <si>
+    <t>2024-07-31 19:54:32</t>
+  </si>
+  <si>
+    <t>2024-07-31 20:40:13</t>
+  </si>
+  <si>
+    <t>2024-07-31 20:48:25</t>
+  </si>
+  <si>
+    <t>2024-07-31 20:49:06</t>
+  </si>
+  <si>
+    <t>2024-07-31 20:52:54</t>
+  </si>
+  <si>
+    <t>2024-07-31 20:53:44</t>
+  </si>
+  <si>
+    <t>2024-07-31 20:55:36</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2024-07-31 20:58:52</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -372,16 +455,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -503,9 +582,9 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -513,268 +592,325 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="C10" t="s" s="0">
-        <v>51</v>
-      </c>
       <c r="D10" t="s" s="0">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>51</v>
+        <v>61</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -782,9 +918,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -792,58 +928,282 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="B18" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
         <v>91</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/app-server/data.xlsx
+++ b/app-server/data.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="27"/>
-    <sheet name="histories" r:id="rId7" sheetId="28"/>
+    <sheet name="users" r:id="rId6" sheetId="37"/>
+    <sheet name="histories" r:id="rId7" sheetId="38"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3050" uniqueCount="131">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -381,6 +381,39 @@
   </si>
   <si>
     <t>2024-07-31 20:58:52</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2024-08-01 09:22:40</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2024-08-01 09:24:12</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2024-08-01 09:31:07</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2024-08-01 09:35:08</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>2024-08-01 10:28:55</t>
   </si>
 </sst>
 </file>
@@ -582,9 +615,9 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -751,13 +784,13 @@
         <v>76</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>58</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
@@ -774,7 +807,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -870,13 +903,13 @@
         <v>88</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s" s="0">
         <v>61</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
@@ -910,6 +943,23 @@
         <v>60</v>
       </c>
       <c r="E19" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s" s="0">
         <v>60</v>
       </c>
     </row>
@@ -918,9 +968,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1206,6 +1256,76 @@
         <v>119</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/app-server/data.xlsx
+++ b/app-server/data.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="37"/>
-    <sheet name="histories" r:id="rId7" sheetId="38"/>
+    <sheet name="users" r:id="rId6" sheetId="47"/>
+    <sheet name="histories" r:id="rId7" sheetId="48"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3050" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4128" uniqueCount="142">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -414,6 +414,39 @@
   </si>
   <si>
     <t>2024-08-01 10:28:55</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2024-08-01 10:35:49</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>2024-08-01 11:30:36</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>2024-08-01 11:30:50</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2024-08-01 11:42:34</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>2024-08-01 12:12:34</t>
   </si>
 </sst>
 </file>
@@ -615,9 +648,9 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -801,13 +834,13 @@
         <v>58</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>60</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12">
@@ -954,12 +987,29 @@
         <v>61</v>
       </c>
       <c r="C20" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="D20" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="E20" t="s" s="0">
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E21" t="s" s="0">
         <v>60</v>
       </c>
     </row>
@@ -968,9 +1018,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1326,6 +1376,76 @@
         <v>130</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/app-server/data.xlsx
+++ b/app-server/data.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="47"/>
-    <sheet name="histories" r:id="rId7" sheetId="48"/>
+    <sheet name="users" r:id="rId6" sheetId="53"/>
+    <sheet name="histories" r:id="rId7" sheetId="54"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4128" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4831" uniqueCount="150">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -447,6 +447,30 @@
   </si>
   <si>
     <t>2024-08-01 12:12:34</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2024-08-01 12:38:41</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>2024-08-01 12:45:10</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>2024-08-01 12:46:42</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>2024-08-01 12:46:56</t>
   </si>
 </sst>
 </file>
@@ -648,7 +672,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -823,7 +847,7 @@
         <v>58</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -840,7 +864,7 @@
         <v>60</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
@@ -936,7 +960,7 @@
         <v>88</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s" s="0">
         <v>61</v>
@@ -987,7 +1011,7 @@
         <v>61</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s" s="0">
         <v>60</v>
@@ -1018,9 +1042,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1446,6 +1470,62 @@
         <v>141</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/app-server/data.xlsx
+++ b/app-server/data.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="53"/>
-    <sheet name="histories" r:id="rId7" sheetId="54"/>
+    <sheet name="users" r:id="rId6" sheetId="59"/>
+    <sheet name="histories" r:id="rId7" sheetId="60"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4831" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5590" uniqueCount="158">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -471,6 +471,30 @@
   </si>
   <si>
     <t>2024-08-01 12:46:56</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2024-08-01 16:51:27</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>2024-08-01 16:51:45</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>2024-08-01 17:20:28</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>2024-08-01 17:24:30</t>
   </si>
 </sst>
 </file>
@@ -672,7 +696,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -861,10 +885,10 @@
         <v>58</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -1011,10 +1035,10 @@
         <v>61</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s" s="0">
         <v>58</v>
@@ -1042,9 +1066,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1526,6 +1550,62 @@
         <v>149</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/app-server/data.xlsx
+++ b/app-server/data.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="59"/>
-    <sheet name="histories" r:id="rId7" sheetId="60"/>
+    <sheet name="users" r:id="rId6" sheetId="73"/>
+    <sheet name="histories" r:id="rId7" sheetId="74"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5590" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7663" uniqueCount="187">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -495,6 +495,93 @@
   </si>
   <si>
     <t>2024-08-01 17:24:30</t>
+  </si>
+  <si>
+    <t>Sterve</t>
+  </si>
+  <si>
+    <t>PRJ</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Sterve,PRJ</t>
+  </si>
+  <si>
+    <t>2024-08-02 15:40:32</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>PJ,Steve</t>
+  </si>
+  <si>
+    <t>2024-08-02 15:59:03</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>2024-08-02 18:11:42</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Steve,PJ</t>
+  </si>
+  <si>
+    <t>2024-08-02 18:12:42</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>2024-08-02 18:15:36</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>2024-08-02 19:10:14</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>2024-08-02 19:11:46</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>2024-08-02 19:12:39</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>2024-08-02 19:13:20</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>2024-08-02 19:13:51</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2024-08-02 19:14:14</t>
   </si>
 </sst>
 </file>
@@ -696,9 +783,9 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1061,14 +1148,82 @@
         <v>60</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1606,6 +1761,160 @@
         <v>157</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/app-server/data.xlsx
+++ b/app-server/data.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="73"/>
-    <sheet name="histories" r:id="rId7" sheetId="74"/>
+    <sheet name="users" r:id="rId6" sheetId="75"/>
+    <sheet name="histories" r:id="rId7" sheetId="76"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7663" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7992" uniqueCount="191">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -582,6 +582,18 @@
   </si>
   <si>
     <t>2024-08-02 19:14:14</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>2024-08-05 09:25:06</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>2024-08-05 09:25:49</t>
   </si>
 </sst>
 </file>
@@ -783,7 +795,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -958,7 +970,7 @@
         <v>58</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
@@ -1071,7 +1083,7 @@
         <v>88</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s" s="0">
         <v>61</v>
@@ -1221,9 +1233,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1915,6 +1927,34 @@
         <v>186</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>190</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/app-server/data.xlsx
+++ b/app-server/data.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="75"/>
-    <sheet name="histories" r:id="rId7" sheetId="76"/>
+    <sheet name="users" r:id="rId6" sheetId="81"/>
+    <sheet name="histories" r:id="rId7" sheetId="82"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7992" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9009" uniqueCount="202">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -594,6 +594,39 @@
   </si>
   <si>
     <t>2024-08-05 09:25:49</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>이민석,이가람</t>
+  </si>
+  <si>
+    <t>2024-08-05 09:41:41</t>
+  </si>
+  <si>
+    <t>테스터1</t>
+  </si>
+  <si>
+    <t>테스터2</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>테스터2,테스터1</t>
+  </si>
+  <si>
+    <t>2024-08-12 17:39:59</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>테스터1,테스터2</t>
+  </si>
+  <si>
+    <t>2024-08-12 17:42:03</t>
   </si>
 </sst>
 </file>
@@ -795,9 +828,9 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1083,7 +1116,7 @@
         <v>88</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s" s="0">
         <v>61</v>
@@ -1106,7 +1139,7 @@
         <v>58</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -1226,6 +1259,40 @@
       </c>
       <c r="E25" t="s" s="0">
         <v>71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1233,9 +1300,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1955,6 +2022,48 @@
         <v>190</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
